--- a/pred_ohlcv/54_21/2019-10-26 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>820829.1495036482</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>793561.2329036482</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1078620.598627225</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1180932.263027225</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1176423.286127225</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1155182.536727225</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1156413.945127225</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1189650.806227226</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1186440.806227226</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1210991.222827225</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1110846.613627225</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1110860.658927226</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1100802.435827225</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1100823.406027226</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>958259.2806272255</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>958359.2806272255</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>890591.9729272255</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>890601.9729272255</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>876135.9729272255</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>870976.3243272256</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>871076.3243272256</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>834802.9729272255</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>738028.4454272256</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1337938.914772774</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1348883.914772774</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1345240.744772774</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>820829.1495036482</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>793561.2329036482</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1078620.598627225</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1207697.483627225</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1180932.263027225</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1176423.286127225</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1176558.011827225</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1171959.034927225</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1155182.536727225</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1156413.945127225</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1186440.806227226</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1210991.222827225</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1110846.613627225</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1110860.658927226</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1100802.435827225</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1100823.406027226</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>958259.2806272255</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>958359.2806272255</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>890591.9729272255</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>890601.9729272255</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>876135.9729272255</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>870976.3243272256</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>871076.3243272256</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>834802.9729272255</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>738028.4454272256</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>694994.4454272256</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1337938.914772774</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1348883.914772774</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1345240.744772774</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
